--- a/sectoral_value_added_bar_chart_race/Table 310-34101.xlsx
+++ b/sectoral_value_added_bar_chart_race/Table 310-34101.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\Animated Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythonProject\Animated Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0F309-E009-4933-A531-9D5A456F695E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1304564-20EA-4F19-B009-BE4F98DEE451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current price" sheetId="2" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -551,18 +551,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6C0F15-A999-4A92-A4BF-38401309C584}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="27" width="15.58203125" customWidth="1"/>
+    <col min="2" max="27" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="63.45" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1980</v>
       </c>
@@ -710,7 +710,7 @@
         <v>9624</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1981</v>
       </c>
@@ -784,7 +784,7 @@
         <v>12424</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1982</v>
       </c>
@@ -858,7 +858,7 @@
         <v>15096</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1983</v>
       </c>
@@ -932,7 +932,7 @@
         <v>18825</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1984</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>20663</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1985</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>22849</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1986</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>25617</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1987</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>30581</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1988</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>35906</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1989</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>41573</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1990</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>47465</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1991</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>53989</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>64269</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1993</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>69481</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1994</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>92098</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1995</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>109225</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1996</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>118810</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1997</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>142064</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>144987</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>143432</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>139111</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>143334</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>139416</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>131450</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>126212</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>139118</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>152019</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>158388</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>177915</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>182696</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>184745</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>195005</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>208036</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>219166</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>232053</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>247648</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>258649</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>264166</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>283028</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>309081</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>303414</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>297816</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>2022</v>
       </c>
@@ -3816,6 +3816,80 @@
       </c>
       <c r="X44">
         <v>284245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45">
+        <v>1131</v>
+      </c>
+      <c r="C45">
+        <v>28206</v>
+      </c>
+      <c r="D45">
+        <v>32794</v>
+      </c>
+      <c r="E45">
+        <v>126872</v>
+      </c>
+      <c r="F45">
+        <v>429774</v>
+      </c>
+      <c r="G45">
+        <v>15287</v>
+      </c>
+      <c r="H45">
+        <v>65619</v>
+      </c>
+      <c r="I45">
+        <v>16590</v>
+      </c>
+      <c r="J45">
+        <v>44372</v>
+      </c>
+      <c r="K45">
+        <v>44975</v>
+      </c>
+      <c r="L45">
+        <v>41985</v>
+      </c>
+      <c r="M45">
+        <v>71646</v>
+      </c>
+      <c r="N45">
+        <v>6821</v>
+      </c>
+      <c r="O45">
+        <v>624651</v>
+      </c>
+      <c r="P45">
+        <v>102495</v>
+      </c>
+      <c r="Q45">
+        <v>92352</v>
+      </c>
+      <c r="R45">
+        <v>9228</v>
+      </c>
+      <c r="S45">
+        <v>44685</v>
+      </c>
+      <c r="T45">
+        <v>56779</v>
+      </c>
+      <c r="U45">
+        <v>153715</v>
+      </c>
+      <c r="V45">
+        <v>320133</v>
+      </c>
+      <c r="W45">
+        <v>289981</v>
+      </c>
+      <c r="X45">
+        <v>296372</v>
       </c>
     </row>
   </sheetData>
